--- a/correlation/Correlation_1_2_6.xlsx
+++ b/correlation/Correlation_1_2_6.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shalin_patel/Downloads/soen6611-measurement-metrics/correlation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA2A8FF-65F7-F445-AAEF-EA092085E6B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAA01A2-BC06-F447-8249-F3D5854E0B95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{45BFDBDD-F876-274E-AECD-01DBD4A8214A}"/>
   </bookViews>
   <sheets>
     <sheet name="metric_1_2_6" sheetId="1" r:id="rId1"/>
-    <sheet name="Statement Coverage" sheetId="2" r:id="rId2"/>
+    <sheet name="metric_1_2_3" sheetId="3" r:id="rId2"/>
+    <sheet name="Statement Coverage" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
   <si>
     <t>Statement Coverage</t>
   </si>
@@ -74,15 +75,34 @@
   <si>
     <t>commons-net-master</t>
   </si>
+  <si>
+    <t>Statement_Mutation</t>
+  </si>
+  <si>
+    <t>Branch_Mutation</t>
+  </si>
+  <si>
+    <t>Statement_Defect</t>
+  </si>
+  <si>
+    <t>Branch_Defect</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -108,10 +128,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1023,6 +1044,910 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Statement Coverage Vs Mutation Score</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>metric_1_2_3!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mutation score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>metric_1_2_3!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.54300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94299999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>metric_1_2_3!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4566-9141-88F9-247936EF8DE0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1713413424"/>
+        <c:axId val="1714170640"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1713413424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Statement Coverage</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1714170640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1714170640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Mutation</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Score</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1713413424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Branch Coverage Vs</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Mutation Score</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>metric_1_2_3!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mutation score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>metric_1_2_3!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.32779999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38440000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.87280000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>metric_1_2_3!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7244-FD42-8533-34B99CBFD0A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1701594464"/>
+        <c:axId val="1701596096"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1701594464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Branch Coverage</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1701596096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1701596096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Mutation Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1701594464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1103,6 +2028,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1620,6 +2625,1038 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2192,6 +4229,83 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1882B62B-D072-8945-B708-1B385D9455D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FD23F57-DC8D-C24E-A012-B67FBF8537CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9752476-2D7B-194E-8BE0-BC611CC70596}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2509,10 +4623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E17634C1-F001-6742-8C09-ABD5C28BBA27}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2522,9 +4636,11 @@
     <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2537,8 +4653,14 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2554,8 +4676,16 @@
       <c r="E2">
         <v>1.2920648E-2</v>
       </c>
+      <c r="F2">
+        <f>CORREL(B2:B5,E2:E5)</f>
+        <v>-0.64274642717140584</v>
+      </c>
+      <c r="G2">
+        <f>CORREL(C2:C5,E2:E5)</f>
+        <v>-0.73925072819817494</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2572,7 +4702,7 @@
         <v>0.10954702299999999</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -2589,7 +4719,7 @@
         <v>9.5415663999999997E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -2613,6 +4743,101 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDAAE04C-3A32-D241-B270-F8A17E3D1F05}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.32779999999999998</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="D2">
+        <f>CORREL(A2:A5,C2:C5)</f>
+        <v>0.99850095378014248</v>
+      </c>
+      <c r="E2">
+        <f>CORREL(B2:B5,C2:C5)</f>
+        <v>0.99534857822233003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.38440000000000002</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.87280000000000002</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.85</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C5">
+    <sortCondition ref="B1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECC8ED3E-39A5-5C42-B2BF-8951267A541C}">
   <dimension ref="A1:E11"/>
   <sheetViews>

--- a/correlation/Correlation_1_2_6.xlsx
+++ b/correlation/Correlation_1_2_6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shalin_patel/Downloads/soen6611-measurement-metrics/correlation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAA01A2-BC06-F447-8249-F3D5854E0B95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E865996F-1B91-4C48-9BCF-C9595A581FEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{45BFDBDD-F876-274E-AECD-01DBD4A8214A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{45BFDBDD-F876-274E-AECD-01DBD4A8214A}"/>
   </bookViews>
   <sheets>
     <sheet name="metric_1_2_6" sheetId="1" r:id="rId1"/>
@@ -4625,8 +4625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E17634C1-F001-6742-8C09-ABD5C28BBA27}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4746,7 +4746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDAAE04C-3A32-D241-B270-F8A17E3D1F05}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
